--- a/data/hotels_by_city/Dallas/Dallas_shard_138.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_138.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>98127634</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>i was in the 2 queen bed room. the room was spacious and ahd a view of the highway and the nearby rail track. take room away from the rail track/highway if you are a light sleeper. The room was clean. did not have much interaction with the front desk. Ample free parking space is available in front of the hotel.More</t>
   </si>
   <si>
+    <t>bandman15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r568349459-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I stayed two nights while working in this area and was pleased with my stay.  The hotel is located near a busy freeway but, since the windows are “doubles”, there is little traffic noise if located on the north end of the hotel.....that is where my room was located.  EXCELLENT workout space, very large with a number of cardio machines and free weights and a workout machine.  I found the hotel to be very clean as it is relatively new.  I would stay here again.More</t>
   </si>
   <si>
+    <t>Michelle F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r561290402-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Nothing very impressive about our stay. The room were small. Small sink and counter space which is separate from the toilet and tub. The bedding is thin and it took forever for the room to cool down. The sockets by the lights wouldn’t work because the prongs were wide and our plugs wouldn’t stay in. Good thing my husband brought an extension cord so we could charge our electronics. Did provide shampoo, conditioner and body wash in the shower. The bar really isn’t a bar. No beers on tap and cheap liquor to choose from. The best thing is the location to shops and restaurants. More</t>
   </si>
   <si>
+    <t>PW541</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r540805342-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>This newer Facility has caring and friendly staff, when they had time when not addressing needs of other guest they talked to make me feel welcomed. The room was exactly as requested with my extra blankets. Next time I'm in the area I will select this location.More</t>
   </si>
   <si>
+    <t>pkp85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r540532687-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We were in the Dallas area for a memorial service for a family member.  This hotel was chosen by location, and The Marriott brand.The noise level was horrible.We felt like the people in the next room were IN our room.  We heard everything, and were awakened both mornings at 5:30/6:00 am by TV, phones, coughing, talking etc.  Additionally, when the people in the room above us moved around,  I️t sounded like they were coming through the ceiling.  As if all that wasn’t bad enough, when they flushed the commode, the water rushed through the wall behind our headboard and sounded like a waterfall.When we checked out, I️ explained all of the above to the desk clerk.  He was very sorry about our experience, but remarkably, I️ was the only person to have ever complained about their sound proofing issues.... really???  I️ would never stay there again, nor would I️ recommend this hotel.More</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r540232006-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Recently stayed at the Courtyard in The Colony.  The area is rapidly growing and there are more dinner options coming on line every day.  The hotel is also new and has that fresh smell.   The rooms are standard Courtyard rooms - neat, clean and adequate.  The lobby has a really good breakfast offering - standard coffee and pastries, as well as a variety of hot items, including a very good oatmeal.  In the evening, they sometimes have live entertainment in the lobby.  Although there were not many people there listening, the individual was pretty good.   Unfortunately, given the nearby interstate, there are really not main walking options (a couple new restaurants are opening soon), so it helps to have a car to get around.   The hotel is about 25-30 minutes from the airport, so plan accordingly.  The staff are friendly and when I stayed the rates were reasonable.   Overall a very nice new property.More</t>
   </si>
   <si>
+    <t>mhegt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r539831683-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>I have now stayed here twice when in town and i must say that i truly like almost everything about this hotel. The rooms are very nice, modern, with tons of usb charging ports. The staff is excellent, they do everything hey can to accommodate your every need. The only negative was the burger i had. Tasted frozen, even the bun. The breakfast was ok, nothing great but reasonable and quick. I will definitely stay here again when in town. More</t>
   </si>
   <si>
+    <t>waldfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r525712296-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>Stopped in for one night on a business trip.  The rooms were very large and spacious.  They were very clean and comfortable.   Starbucks in the lobby was a nice plus also.  The lobby was always noisy as the bar area is right in the open.  No separation.   All in all a great quiet stay and will be back when in the area.  Would highly recommend.  More</t>
   </si>
   <si>
+    <t>SyracuseOrangeFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r506872440-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>We were here for a wedding and staying four nights. The wedding venue is adjacent to the hotel was why we picked the hotel. Arrived Thursday. Staying at the hotel were a number of athletic teams and they ran wild. Complaints to the manager fell on deaf ears. Friday night was not any better any yelling in the halls woke me up at 1:00 am. Noise finally subsided and got back to sleep after 2:30. At six am I thought there was a semi running through my room only to find out it was a locomotive going by the hotel about 50 yards behind the hotel. SinceI I will be here for two more nights I hope I can get one good nights sleepMore</t>
   </si>
   <si>
+    <t>D K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r504218814-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>Excellent check in experience. Room was clean and all prior requests honored (high floor away from elevator) Great staff whether we were coming or going we were greeted with a smile. Very busy lobby/bfast area. You share the parking lot with 2 other Marriott properties and it is right next to the Cascades Convention center. It's within 5 mins from many affordable restaurants and close to great gas station with awesome bbq. Safe well lit area to return to at night. We will be back. Only draw back was when the a/c kicked on it almost through us out of bed it was so loud. More</t>
   </si>
   <si>
+    <t>Dusten M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r477541871-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>The hotel has all the features and touches of hotels much more expensive. The lobby is very posh, swanky and pleasant to be in.. Bar area with wine, spirits and beers available all though expensive. No free breakfast but they do have good breakfast items on the menu to go along with their Starbucks style coffee.The rooms were very nice. Large and spacious. Bathrooms were very big with glass walled showers. Definitely did not have the feel of a Courtyard Marriott. Service people were very nice. Location is good if you are doing business in that area or have a little too much fun at the Top Golf right down the street. All in all if you are considering this hotel as an option - take my advice and book it.More</t>
   </si>
   <si>
+    <t>kellithetaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r477495517-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -456,6 +492,9 @@
     <t>The staff was friendly, except for restaurant, where the person who took my order was clearly not interested &amp; entered the order incorrectly. This is a standard courtyard with the normal amenities, located in a beer area that is really growing. Unfortunately for me, I'm a light sleeper, so the two major highways that are so close to the hotel provided constant traffic noise all night, but the worst noise was the TRAIN that passes by frequently. It's just on the other side of the hotel fence. I was told upon checkout to ask for even room numbers next time. Four stars for cleanliness &amp; friendly front staff.More</t>
   </si>
   <si>
+    <t>David C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r474602145-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>We stayed here overnight for a wedding at the adjacent Chapel at Ana Villa.  It was extremely convenient for a wedding guest.  I highly recommend this facility if you are attending a wedding at Chapel at Ana Villa.  The room was very clean and quiet, but the "view" was poor.  We had a 5th floor room which overlooked a highway overpass and railroad tracks, accented by a well-lit billboard.  Fortunately the room is equipped with excellent shades that block the light coming off the billboard, so that potential problem was resolved.  We left in a hurry and did not have an opportunity to eat the breakfast/brunch that is available there.The staff was very nice and acccommodating.  I left some clothing items in the room and the staff recovered them and held them until I could manage to get them picked up.  This service was extremely appreciated.More</t>
   </si>
   <si>
+    <t>lindabU5137CV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r465636714-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>This hotel was very accommodating while we were in Dallas for a family members funeral. they moved rooms in order to get all family members on the same floor. My elderly mother was grateful for the walk in shower, which is very nice. I usually stay where a breakfast and complimentary coffee available in the lobby are included and missed this. The employees at the café were nice and very helpful and the food we did purchase was good although pricey. The addition of the bar was nice. The rooms in the hotel are very nice and comfortable.More</t>
   </si>
   <si>
+    <t>flyboy1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r464584291-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -549,6 +594,9 @@
     <t>I stayed here in February for a week on business.  The hotel is very modern and comfortable. The food service is rather limited and I suggest this needs to be improved. Pretty much everything on the menu is made by the waiters to the most luxurious is a burger for example! I requested a room away from the train line after hearing the reviews and I have to stay it was very quiet. The room was comfortable but I have to say it was a little tired in the bathroom considering this is a new hotel with items such as the toilet roll holder hanging off, chips out of the shower basin etc. The rooms have plenty of USB plugs and also international plug sockets which are useful. You also get a coffee machine in the rooms. Parking is free. The only issue I had at this hotel was the lack of welcoming by the front of house staff, maybe they were just quiet but the majority just seemed to be not very interested. Not the normal happy Marriott approach. I did not use the pool or gym but they looked very nice. Overall a good stay and I would return. More</t>
   </si>
   <si>
+    <t>dianagay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r463132231-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -567,6 +615,9 @@
     <t>We had an unexpected overnight stay.  The front desk staff was excellent in helping me get checked in and finding the best price for us. A few minutes after arriving I the room exhausted and cranky we have someone at the door. The front desk had ordered a crib be delivered because we had an infant with us. The facility is in new condition. You can still smell the newness. Beautiful modern and efficient decor. Edna at the front desk went the extra mile to help us in every area from accommodations to food to finding a store to make necessary purchases. She took some of the pressure off with her kindness and willingness to help. Top notch!More</t>
   </si>
   <si>
+    <t>beanschnook</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r462548466-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -591,6 +642,9 @@
     <t>I was excited to try this new property.  It's gleaming and nice both as you approach and enter the lobby.  I have a predictive rule that the elevator tells you a lot about what to expect in the room - and unfortunately, the dirty carpet in the elevator was a red flag that the room was...less than acceptable.The big issue for me was that housekeeping apparently was not aware that one can close the bathroom door- exposing the area behind it.  That's where about 2-3 months worth of dust, hair and a toilet paper roll were waiting to greet me.  Hair in the sink.  Hair on the walls of the shower. Then, I discovered: No remote for the TV. At that point, I requested a room change, but alas, the hotel was sold-out.  Ugh.And then, the a/c kicked in.  I knew each and every time when it turned on, because it shook and rattled as if they had used some used a/c units from some dumpy motel.  These are the pseudo-window units - not wall units. Made the otherwise well-designed room seem like a cheap motel.Checked out after that one night, and not soon enough. If housekeeping could get their act together, it wouldn't be awful, but max of three stars.  Not going back.  Lots of other options in Plano/Frisco.More</t>
   </si>
   <si>
+    <t>Nomadic_Thoughts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r439999550-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -616,6 +670,9 @@
   </si>
   <si>
     <t>I enjoyed our stay at the Couryard as the room is nicely furnished which makes for a relaxing evening. The bathroom and shower is also exceptional which can be compared to higher prices hotels. Checking in was fast and the staff was helpful. However, when I was checking out, although it was early at 5AM, then staff was no where to be found until I had to call the desk. I was not handed a receipt as I was told there were issues with the system and it will be emailed to me...which I have not received.In any case, I would stay at this Courtyard again when I visit Dallas again.More</t>
+  </si>
+  <si>
+    <t>chrisbmarino</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r435341293-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -652,6 +709,9 @@
 The thing that made me upset is when Priceline hung up with her she made a chuckle implying that she had won and I was not going to get an accommodating room....The hotel is super nice and very affordable!!  I walked into the hotel after a 4 hour drive and made reservations ahead of time thru Priceline which I use often since I travel for business 2-3 weeks a month.  The person at the desk was rude, unprofessional and a downright hateful person.  She checked us in very slowly as if since she was uncomfortable to be there we would also.  Got to our room me and my male cousin and it was only a king bed.  We went down and let her know the situation and she said the we are locked into that room and there is nothing she could do.  I asked to speak to a supervisor or a manager she said that was not possible at all acting as if she was the final word for that hotel.  I asked if the problem was that there were any rooms with 2 separate bed she said that there were plenty available.  She said I should call Priceline and see if they could fix it. Called Priceline and they said give them a couple minutes so they called to hotel and when Priceline got back to me they said that they couldn't get anywhere with her either.The thing that made me upset is when Priceline hung up with her she made a chuckle implying that she had won and I was not going to get an accommodating room.Very disappointed. Never had I been treated so poorly.  AND I AM IN CUSTOMER SERVICE BUSINESS!!More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r432372585-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -676,6 +736,9 @@
     <t>The hotel is very nice; brand new.  Staff was super friendly, acknowledged my status, stepped away from the counter to show me the hotel's offering and truly made me feel welcomed.  The room was exceptional, tv offered internet channels which is always a plus!  Only suggestions is ensure that your heavy furniture does not block the outlets behind the desk.  I had trouble reaching it.  It would have been better to have outlets at desk top level for easy access.  Also, the tv is fixed to the wall and difficult to see lying in bed.  Perhaps a swivel wall unit would be better; not everyone watches tv from the sofa and providing more options is best.Finally, much shopping and restaurants within a very short drive but nothing within walking distance; however they are building restaurants right off the parking lot to address this.I highly recommend this hotel.  More</t>
   </si>
   <si>
+    <t>Melissa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r426401314-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -701,6 +764,9 @@
   </si>
   <si>
     <t>We stayed here for two nights for a wedding. It is in a great location especially if someone is getting married at the chapel next door. It is a brand new hotel and everything works well. We didn't think the bed was all that comfortable. The main reason I'm giving it three stars is because of the noise. There's a train right outside the rooms and it wakes you up because it rumbles the entire room. We are sound sleepers and it still woke us up multiple times during the night. Also, no free breakfast so that's always a bummer. More</t>
+  </si>
+  <si>
+    <t>lovebossa</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r410689319-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -738,6 +804,9 @@
 I have not planned my...I was looking for something that fits the budget, but still clean and less motel-ish, and located conveniently by the highway for a day trip to IKEA. Overall, the hotel exceeded the expectation and I am happy that I chose this hotel. Check-in was very smooth and there were ample parking spaces outside. No expensive parking fees! The lobby was filled with sunshine and it looked very comfortable, although I did not have a chance to sit on these sofas. The room was very modern and well-appointed. There was a very comfortable sofa with ottoman for two people and the bed was very comfortable. The shower area was spacious (Note: There is no bathtub). The shower head is a standard one but I liked the water pressure. The amenities could have been improved, however. The ones that were provided were Paul Mitchell's collection. While it is a step-up compared to some other amenities that I have seen in the past, I think there are better options. For instance, "Green initiative" has been one of the areas that Mariott has been taking initiative in. So, maybe some brands that share the similar concept may have the made the experience more streamlined. Lastly, I do have to mention that the staff at Bistro was very hospitable. I did not order anything special (granola yogurt) but sheseemed very happy and it was very pleasant to interactive with her. I have not planned my next IKEA trip but I would definitely come back. Thanks for the wonderful stay!More</t>
   </si>
   <si>
+    <t>deltagirl65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r400960747-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -765,6 +834,9 @@
     <t>I typically stay in Marriott properties and this was a pretty good one. It is new, so most everything sparkles!!! I absolutely LOVED the workout room and the easy accessibility of the pool area. There was a couple of issues with not having the correct amount of towels daily, and some kind of staining in the shower, but otherwise it was great. We will be back VERY SOON!More</t>
   </si>
   <si>
+    <t>Foodie2D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r382756977-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -792,6 +864,9 @@
     <t>This was a very nice property that offered an alternative to the higher cost of the Marriott at the Shoppes of Legacy. Only open a short while, clean and shiny, it was just a quick drive down to that area for access to great dining, and the social scene, I would stay here again, assuming they keep their rates in line. Nice property, friendly staff.More</t>
   </si>
   <si>
+    <t>starsonthewater</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r373824803-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -817,6 +892,9 @@
   </si>
   <si>
     <t>We stayed here while attending a corporate meeting.  The hotel has only been open a few weeks.  The rooms were clean and comfortable.  I had a King,accessible room which was very nice.  The bed was very comfortable. There is a hidden mini refrigerator in the behind the cabinet on the wall. There were plenty of dining and entertainment options within a 5 mile radius that the shuttle would provide service to.  Everyone at the front desk was very helpful.More</t>
+  </si>
+  <si>
+    <t>James L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r371153452-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -1348,43 +1426,47 @@
       <c r="A2" t="n">
         <v>64805</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1402,56 +1484,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64805</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>19481</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1463,56 +1549,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64805</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>18293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1524,56 +1614,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64805</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1589,56 +1683,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64805</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>112529</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1650,56 +1748,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64805</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1715,56 +1817,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64805</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1776,56 +1882,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64805</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1837,56 +1947,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64805</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1902,47 +2016,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64805</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>9017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -1959,56 +2077,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64805</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2020,56 +2142,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64805</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2081,56 +2207,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64805</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>520</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2148,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -2167,37 +2297,37 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2215,56 +2345,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64805</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2280,56 +2414,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64805</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127215</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2341,56 +2479,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64805</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127216</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2402,56 +2544,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X18" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64805</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2469,56 +2615,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64805</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127218</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2536,56 +2686,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64805</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2601,47 +2755,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64805</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127220</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -2658,56 +2816,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64805</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>6514</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2719,56 +2881,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64805</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2786,56 +2952,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64805</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -2853,56 +3023,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64805</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2918,56 +3092,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64805</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -2983,56 +3161,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64805</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3050,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_138.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_138.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>98127634</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r603588046-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>56763</t>
+  </si>
+  <si>
+    <t>8778798</t>
+  </si>
+  <si>
+    <t>603588046</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Great room especially  for the price</t>
+  </si>
+  <si>
+    <t>Small room, but everything you need. Fridge, coffee maker iron well designed. We were there for a wedding that was at event center right next door and it could not have been better. Work out room was clean and had nice amenities, cafe had limited hours but the food was good and they were more than accommodating and friendly. It was a clean, comfortable, friendly place!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>mike c, General Manager at Courtyard Dallas Plano/The Colony, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Small room, but everything you need. Fridge, coffee maker iron well designed. We were there for a wedding that was at event center right next door and it could not have been better. Work out room was clean and had nice amenities, cafe had limited hours but the food was good and they were more than accommodating and friendly. It was a clean, comfortable, friendly place!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r576130364-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
-    <t>56763</t>
-  </si>
-  <si>
-    <t>8778798</t>
-  </si>
-  <si>
     <t>576130364</t>
   </si>
   <si>
@@ -180,18 +207,15 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>mike c, General Manager at Courtyard Dallas Plano/The Colony, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>mike c, General Manager at Courtyard Dallas Plano/The Colony, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
   </si>
   <si>
     <t>i was in the 2 queen bed room. the room was spacious and ahd a view of the highway and the nearby rail track. take room away from the rail track/highway if you are a light sleeper. The room was clean. did not have much interaction with the front desk. Ample free parking space is available in front of the hotel.More</t>
   </si>
   <si>
-    <t>bandman15</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r568349459-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -222,9 +246,6 @@
     <t>I stayed two nights while working in this area and was pleased with my stay.  The hotel is located near a busy freeway but, since the windows are “doubles”, there is little traffic noise if located on the north end of the hotel.....that is where my room was located.  EXCELLENT workout space, very large with a number of cardio machines and free weights and a workout machine.  I found the hotel to be very clean as it is relatively new.  I would stay here again.More</t>
   </si>
   <si>
-    <t>Michelle F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r561290402-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -243,9 +264,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>mike c, General Manager at Courtyard Dallas Plano/The Colony, responded to this reviewResponded February 20, 2018</t>
   </si>
   <si>
@@ -255,9 +273,6 @@
     <t>Nothing very impressive about our stay. The room were small. Small sink and counter space which is separate from the toilet and tub. The bedding is thin and it took forever for the room to cool down. The sockets by the lights wouldn’t work because the prongs were wide and our plugs wouldn’t stay in. Good thing my husband brought an extension cord so we could charge our electronics. Did provide shampoo, conditioner and body wash in the shower. The bar really isn’t a bar. No beers on tap and cheap liquor to choose from. The best thing is the location to shops and restaurants. More</t>
   </si>
   <si>
-    <t>PW541</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r540805342-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -285,9 +300,6 @@
     <t>This newer Facility has caring and friendly staff, when they had time when not addressing needs of other guest they talked to make me feel welcomed. The room was exactly as requested with my extra blankets. Next time I'm in the area I will select this location.More</t>
   </si>
   <si>
-    <t>pkp85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r540532687-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -312,9 +324,6 @@
     <t>We were in the Dallas area for a memorial service for a family member.  This hotel was chosen by location, and The Marriott brand.The noise level was horrible.We felt like the people in the next room were IN our room.  We heard everything, and were awakened both mornings at 5:30/6:00 am by TV, phones, coughing, talking etc.  Additionally, when the people in the room above us moved around,  I️t sounded like they were coming through the ceiling.  As if all that wasn’t bad enough, when they flushed the commode, the water rushed through the wall behind our headboard and sounded like a waterfall.When we checked out, I️ explained all of the above to the desk clerk.  He was very sorry about our experience, but remarkably, I️ was the only person to have ever complained about their sound proofing issues.... really???  I️ would never stay there again, nor would I️ recommend this hotel.More</t>
   </si>
   <si>
-    <t>David M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r540232006-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -336,9 +345,6 @@
     <t>Recently stayed at the Courtyard in The Colony.  The area is rapidly growing and there are more dinner options coming on line every day.  The hotel is also new and has that fresh smell.   The rooms are standard Courtyard rooms - neat, clean and adequate.  The lobby has a really good breakfast offering - standard coffee and pastries, as well as a variety of hot items, including a very good oatmeal.  In the evening, they sometimes have live entertainment in the lobby.  Although there were not many people there listening, the individual was pretty good.   Unfortunately, given the nearby interstate, there are really not main walking options (a couple new restaurants are opening soon), so it helps to have a car to get around.   The hotel is about 25-30 minutes from the airport, so plan accordingly.  The staff are friendly and when I stayed the rates were reasonable.   Overall a very nice new property.More</t>
   </si>
   <si>
-    <t>mhegt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r539831683-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -363,9 +369,6 @@
     <t>I have now stayed here twice when in town and i must say that i truly like almost everything about this hotel. The rooms are very nice, modern, with tons of usb charging ports. The staff is excellent, they do everything hey can to accommodate your every need. The only negative was the burger i had. Tasted frozen, even the bun. The breakfast was ok, nothing great but reasonable and quick. I will definitely stay here again when in town. More</t>
   </si>
   <si>
-    <t>waldfam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r525712296-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -393,9 +396,6 @@
     <t>Stopped in for one night on a business trip.  The rooms were very large and spacious.  They were very clean and comfortable.   Starbucks in the lobby was a nice plus also.  The lobby was always noisy as the bar area is right in the open.  No separation.   All in all a great quiet stay and will be back when in the area.  Would highly recommend.  More</t>
   </si>
   <si>
-    <t>SyracuseOrangeFan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r506872440-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -423,9 +423,6 @@
     <t>We were here for a wedding and staying four nights. The wedding venue is adjacent to the hotel was why we picked the hotel. Arrived Thursday. Staying at the hotel were a number of athletic teams and they ran wild. Complaints to the manager fell on deaf ears. Friday night was not any better any yelling in the halls woke me up at 1:00 am. Noise finally subsided and got back to sleep after 2:30. At six am I thought there was a semi running through my room only to find out it was a locomotive going by the hotel about 50 yards behind the hotel. SinceI I will be here for two more nights I hope I can get one good nights sleepMore</t>
   </si>
   <si>
-    <t>D K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r504218814-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>Excellent check in experience. Room was clean and all prior requests honored (high floor away from elevator) Great staff whether we were coming or going we were greeted with a smile. Very busy lobby/bfast area. You share the parking lot with 2 other Marriott properties and it is right next to the Cascades Convention center. It's within 5 mins from many affordable restaurants and close to great gas station with awesome bbq. Safe well lit area to return to at night. We will be back. Only draw back was when the a/c kicked on it almost through us out of bed it was so loud. More</t>
   </si>
   <si>
-    <t>Dusten M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r477541871-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
     <t>The hotel has all the features and touches of hotels much more expensive. The lobby is very posh, swanky and pleasant to be in.. Bar area with wine, spirits and beers available all though expensive. No free breakfast but they do have good breakfast items on the menu to go along with their Starbucks style coffee.The rooms were very nice. Large and spacious. Bathrooms were very big with glass walled showers. Definitely did not have the feel of a Courtyard Marriott. Service people were very nice. Location is good if you are doing business in that area or have a little too much fun at the Top Golf right down the street. All in all if you are considering this hotel as an option - take my advice and book it.More</t>
   </si>
   <si>
-    <t>kellithetaz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r477495517-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -492,9 +483,6 @@
     <t>The staff was friendly, except for restaurant, where the person who took my order was clearly not interested &amp; entered the order incorrectly. This is a standard courtyard with the normal amenities, located in a beer area that is really growing. Unfortunately for me, I'm a light sleeper, so the two major highways that are so close to the hotel provided constant traffic noise all night, but the worst noise was the TRAIN that passes by frequently. It's just on the other side of the hotel fence. I was told upon checkout to ask for even room numbers next time. Four stars for cleanliness &amp; friendly front staff.More</t>
   </si>
   <si>
-    <t>David C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r474602145-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -543,9 +531,6 @@
     <t>We stayed here overnight for a wedding at the adjacent Chapel at Ana Villa.  It was extremely convenient for a wedding guest.  I highly recommend this facility if you are attending a wedding at Chapel at Ana Villa.  The room was very clean and quiet, but the "view" was poor.  We had a 5th floor room which overlooked a highway overpass and railroad tracks, accented by a well-lit billboard.  Fortunately the room is equipped with excellent shades that block the light coming off the billboard, so that potential problem was resolved.  We left in a hurry and did not have an opportunity to eat the breakfast/brunch that is available there.The staff was very nice and acccommodating.  I left some clothing items in the room and the staff recovered them and held them until I could manage to get them picked up.  This service was extremely appreciated.More</t>
   </si>
   <si>
-    <t>lindabU5137CV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r465636714-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -567,9 +552,6 @@
     <t>This hotel was very accommodating while we were in Dallas for a family members funeral. they moved rooms in order to get all family members on the same floor. My elderly mother was grateful for the walk in shower, which is very nice. I usually stay where a breakfast and complimentary coffee available in the lobby are included and missed this. The employees at the café were nice and very helpful and the food we did purchase was good although pricey. The addition of the bar was nice. The rooms in the hotel are very nice and comfortable.More</t>
   </si>
   <si>
-    <t>flyboy1000</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r464584291-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -594,9 +576,6 @@
     <t>I stayed here in February for a week on business.  The hotel is very modern and comfortable. The food service is rather limited and I suggest this needs to be improved. Pretty much everything on the menu is made by the waiters to the most luxurious is a burger for example! I requested a room away from the train line after hearing the reviews and I have to stay it was very quiet. The room was comfortable but I have to say it was a little tired in the bathroom considering this is a new hotel with items such as the toilet roll holder hanging off, chips out of the shower basin etc. The rooms have plenty of USB plugs and also international plug sockets which are useful. You also get a coffee machine in the rooms. Parking is free. The only issue I had at this hotel was the lack of welcoming by the front of house staff, maybe they were just quiet but the majority just seemed to be not very interested. Not the normal happy Marriott approach. I did not use the pool or gym but they looked very nice. Overall a good stay and I would return. More</t>
   </si>
   <si>
-    <t>dianagay</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r463132231-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -615,9 +594,6 @@
     <t>We had an unexpected overnight stay.  The front desk staff was excellent in helping me get checked in and finding the best price for us. A few minutes after arriving I the room exhausted and cranky we have someone at the door. The front desk had ordered a crib be delivered because we had an infant with us. The facility is in new condition. You can still smell the newness. Beautiful modern and efficient decor. Edna at the front desk went the extra mile to help us in every area from accommodations to food to finding a store to make necessary purchases. She took some of the pressure off with her kindness and willingness to help. Top notch!More</t>
   </si>
   <si>
-    <t>beanschnook</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r462548466-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -642,9 +618,6 @@
     <t>I was excited to try this new property.  It's gleaming and nice both as you approach and enter the lobby.  I have a predictive rule that the elevator tells you a lot about what to expect in the room - and unfortunately, the dirty carpet in the elevator was a red flag that the room was...less than acceptable.The big issue for me was that housekeeping apparently was not aware that one can close the bathroom door- exposing the area behind it.  That's where about 2-3 months worth of dust, hair and a toilet paper roll were waiting to greet me.  Hair in the sink.  Hair on the walls of the shower. Then, I discovered: No remote for the TV. At that point, I requested a room change, but alas, the hotel was sold-out.  Ugh.And then, the a/c kicked in.  I knew each and every time when it turned on, because it shook and rattled as if they had used some used a/c units from some dumpy motel.  These are the pseudo-window units - not wall units. Made the otherwise well-designed room seem like a cheap motel.Checked out after that one night, and not soon enough. If housekeeping could get their act together, it wouldn't be awful, but max of three stars.  Not going back.  Lots of other options in Plano/Frisco.More</t>
   </si>
   <si>
-    <t>Nomadic_Thoughts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r439999550-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -670,9 +643,6 @@
   </si>
   <si>
     <t>I enjoyed our stay at the Couryard as the room is nicely furnished which makes for a relaxing evening. The bathroom and shower is also exceptional which can be compared to higher prices hotels. Checking in was fast and the staff was helpful. However, when I was checking out, although it was early at 5AM, then staff was no where to be found until I had to call the desk. I was not handed a receipt as I was told there were issues with the system and it will be emailed to me...which I have not received.In any case, I would stay at this Courtyard again when I visit Dallas again.More</t>
-  </si>
-  <si>
-    <t>chrisbmarino</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r435341293-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -709,9 +679,6 @@
 The thing that made me upset is when Priceline hung up with her she made a chuckle implying that she had won and I was not going to get an accommodating room....The hotel is super nice and very affordable!!  I walked into the hotel after a 4 hour drive and made reservations ahead of time thru Priceline which I use often since I travel for business 2-3 weeks a month.  The person at the desk was rude, unprofessional and a downright hateful person.  She checked us in very slowly as if since she was uncomfortable to be there we would also.  Got to our room me and my male cousin and it was only a king bed.  We went down and let her know the situation and she said the we are locked into that room and there is nothing she could do.  I asked to speak to a supervisor or a manager she said that was not possible at all acting as if she was the final word for that hotel.  I asked if the problem was that there were any rooms with 2 separate bed she said that there were plenty available.  She said I should call Priceline and see if they could fix it. Called Priceline and they said give them a couple minutes so they called to hotel and when Priceline got back to me they said that they couldn't get anywhere with her either.The thing that made me upset is when Priceline hung up with her she made a chuckle implying that she had won and I was not going to get an accommodating room.Very disappointed. Never had I been treated so poorly.  AND I AM IN CUSTOMER SERVICE BUSINESS!!More</t>
   </si>
   <si>
-    <t>Cypressman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r432372585-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -736,9 +703,6 @@
     <t>The hotel is very nice; brand new.  Staff was super friendly, acknowledged my status, stepped away from the counter to show me the hotel's offering and truly made me feel welcomed.  The room was exceptional, tv offered internet channels which is always a plus!  Only suggestions is ensure that your heavy furniture does not block the outlets behind the desk.  I had trouble reaching it.  It would have been better to have outlets at desk top level for easy access.  Also, the tv is fixed to the wall and difficult to see lying in bed.  Perhaps a swivel wall unit would be better; not everyone watches tv from the sofa and providing more options is best.Finally, much shopping and restaurants within a very short drive but nothing within walking distance; however they are building restaurants right off the parking lot to address this.I highly recommend this hotel.  More</t>
   </si>
   <si>
-    <t>Melissa W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r426401314-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -764,9 +728,6 @@
   </si>
   <si>
     <t>We stayed here for two nights for a wedding. It is in a great location especially if someone is getting married at the chapel next door. It is a brand new hotel and everything works well. We didn't think the bed was all that comfortable. The main reason I'm giving it three stars is because of the noise. There's a train right outside the rooms and it wakes you up because it rumbles the entire room. We are sound sleepers and it still woke us up multiple times during the night. Also, no free breakfast so that's always a bummer. More</t>
-  </si>
-  <si>
-    <t>lovebossa</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r410689319-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -804,9 +765,6 @@
 I have not planned my...I was looking for something that fits the budget, but still clean and less motel-ish, and located conveniently by the highway for a day trip to IKEA. Overall, the hotel exceeded the expectation and I am happy that I chose this hotel. Check-in was very smooth and there were ample parking spaces outside. No expensive parking fees! The lobby was filled with sunshine and it looked very comfortable, although I did not have a chance to sit on these sofas. The room was very modern and well-appointed. There was a very comfortable sofa with ottoman for two people and the bed was very comfortable. The shower area was spacious (Note: There is no bathtub). The shower head is a standard one but I liked the water pressure. The amenities could have been improved, however. The ones that were provided were Paul Mitchell's collection. While it is a step-up compared to some other amenities that I have seen in the past, I think there are better options. For instance, "Green initiative" has been one of the areas that Mariott has been taking initiative in. So, maybe some brands that share the similar concept may have the made the experience more streamlined. Lastly, I do have to mention that the staff at Bistro was very hospitable. I did not order anything special (granola yogurt) but sheseemed very happy and it was very pleasant to interactive with her. I have not planned my next IKEA trip but I would definitely come back. Thanks for the wonderful stay!More</t>
   </si>
   <si>
-    <t>deltagirl65</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r400960747-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -834,9 +792,6 @@
     <t>I typically stay in Marriott properties and this was a pretty good one. It is new, so most everything sparkles!!! I absolutely LOVED the workout room and the easy accessibility of the pool area. There was a couple of issues with not having the correct amount of towels daily, and some kind of staining in the shower, but otherwise it was great. We will be back VERY SOON!More</t>
   </si>
   <si>
-    <t>Foodie2D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r382756977-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -864,9 +819,6 @@
     <t>This was a very nice property that offered an alternative to the higher cost of the Marriott at the Shoppes of Legacy. Only open a short while, clean and shiny, it was just a quick drive down to that area for access to great dining, and the social scene, I would stay here again, assuming they keep their rates in line. Nice property, friendly staff.More</t>
   </si>
   <si>
-    <t>starsonthewater</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r373824803-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -892,9 +844,6 @@
   </si>
   <si>
     <t>We stayed here while attending a corporate meeting.  The hotel has only been open a few weeks.  The rooms were clean and comfortable.  I had a King,accessible room which was very nice.  The bed was very comfortable. There is a hidden mini refrigerator in the behind the cabinet on the wall. There were plenty of dining and entertainment options within a 5 mile radius that the shuttle would provide service to.  Everyone at the front desk was very helpful.More</t>
-  </si>
-  <si>
-    <t>James L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d8778798-r371153452-Courtyard_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -1426,183 +1375,171 @@
       <c r="A2" t="n">
         <v>64805</v>
       </c>
-      <c r="B2" t="n">
-        <v>127207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64805</v>
       </c>
-      <c r="B3" t="n">
-        <v>19481</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64805</v>
       </c>
-      <c r="B4" t="n">
-        <v>18293</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1614,328 +1551,308 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64805</v>
       </c>
-      <c r="B5" t="n">
-        <v>127208</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64805</v>
       </c>
-      <c r="B6" t="n">
-        <v>112529</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64805</v>
       </c>
-      <c r="B7" t="n">
-        <v>2192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64805</v>
       </c>
-      <c r="B8" t="n">
-        <v>127209</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64805</v>
       </c>
-      <c r="B9" t="n">
-        <v>127210</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1947,132 +1864,128 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64805</v>
       </c>
-      <c r="B10" t="n">
-        <v>127211</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64805</v>
       </c>
-      <c r="B11" t="n">
-        <v>9017</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2083,55 +1996,47 @@
         <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64805</v>
       </c>
-      <c r="B12" t="n">
-        <v>127212</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
-        <v>148</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -2142,60 +2047,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64805</v>
       </c>
-      <c r="B13" t="n">
-        <v>127213</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
         <v>145</v>
       </c>
-      <c r="K13" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" t="s">
-        <v>156</v>
-      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2207,84 +2108,74 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
         <v>149</v>
-      </c>
-      <c r="X13" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64805</v>
       </c>
-      <c r="B14" t="n">
-        <v>520</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -2297,46 +2188,46 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
         <v>4</v>
       </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2345,194 +2236,188 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64805</v>
       </c>
-      <c r="B16" t="n">
-        <v>127214</v>
-      </c>
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
+        <v>169</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64805</v>
       </c>
-      <c r="B17" t="n">
-        <v>127215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="X17" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="Y17" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64805</v>
       </c>
-      <c r="B18" t="n">
-        <v>127216</v>
-      </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2544,333 +2429,313 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64805</v>
       </c>
-      <c r="B19" t="n">
-        <v>127217</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="X19" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64805</v>
       </c>
-      <c r="B20" t="n">
-        <v>127218</v>
-      </c>
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64805</v>
       </c>
-      <c r="B21" t="n">
-        <v>127219</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
+      <c r="R21" t="n">
         <v>5</v>
       </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64805</v>
       </c>
-      <c r="B22" t="n">
-        <v>127220</v>
-      </c>
-      <c r="C22" t="s">
-        <v>227</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64805</v>
       </c>
-      <c r="B23" t="n">
-        <v>6514</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>242</v>
-      </c>
-      <c r="O23" t="s">
-        <v>75</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -2881,205 +2746,189 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="X23" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64805</v>
       </c>
-      <c r="B24" t="n">
-        <v>127221</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s">
-        <v>173</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64805</v>
       </c>
-      <c r="B25" t="n">
-        <v>127222</v>
-      </c>
-      <c r="C25" t="s">
-        <v>256</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="n">
+        <v>169</v>
+      </c>
+      <c r="P25" t="n">
         <v>5</v>
       </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="n">
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
         <v>5</v>
       </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64805</v>
       </c>
-      <c r="B26" t="n">
-        <v>127223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>5</v>
@@ -3092,138 +2941,128 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64805</v>
       </c>
-      <c r="B27" t="n">
-        <v>127224</v>
-      </c>
-      <c r="C27" t="s">
-        <v>276</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
         <v>5</v>
       </c>
-      <c r="N27" t="s">
-        <v>282</v>
-      </c>
-      <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64805</v>
       </c>
-      <c r="B28" t="n">
-        <v>1308</v>
-      </c>
-      <c r="C28" t="s">
-        <v>286</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3232,13 +3071,80 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>295</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64805</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
